--- a/Dataset/Authors/VARRO_rust.xlsx
+++ b/Dataset/Authors/VARRO_rust.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\VARRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CFE21-78FF-47E6-9F42-DD57B2BB1AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6EBC43-3DE7-45CE-90D1-C12705434DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>aedificium</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>VARRO rust.</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -777,23 +780,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -801,39 +804,39 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -841,7 +844,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -849,87 +852,87 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -937,39 +940,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -977,7 +980,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -985,23 +988,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -1017,15 +1020,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -1033,15 +1036,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -1049,63 +1052,63 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -1113,39 +1116,39 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -1161,7 +1164,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -1169,23 +1172,23 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -1201,15 +1204,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
@@ -1225,47 +1228,47 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -1281,23 +1284,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
@@ -1305,15 +1308,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -1321,23 +1324,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -1345,39 +1348,39 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1">
         <v>2</v>
@@ -1385,55 +1388,55 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -1449,31 +1452,31 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -1481,47 +1484,47 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -1529,21 +1532,32 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B102" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B102">
+    <sortCondition ref="A102"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>